--- a/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.4488631266767443</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5487533477737936</v>
+        <v>0.5487533477737937</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3083112664396168</v>
+        <v>0.3071103407495677</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.312063625674638</v>
+        <v>0.3169313445361674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3053242959953509</v>
+        <v>0.3070262166398625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3907129392829772</v>
+        <v>0.3901829916737525</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4403222531506226</v>
+        <v>0.4408098688970448</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4927927145628201</v>
+        <v>0.493296171455668</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4990531367822726</v>
+        <v>0.4985010301416575</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6079159677046582</v>
+        <v>0.6084357914919658</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.389530967020098</v>
+        <v>0.3892381080188853</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4261222573063243</v>
+        <v>0.4264454988715276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4244888852560009</v>
+        <v>0.4244283969296892</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5252625004128493</v>
+        <v>0.5241268640259242</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3632805351252535</v>
+        <v>0.3615004603674911</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3768927557024356</v>
+        <v>0.3775778688148086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3693164519533696</v>
+        <v>0.3739646352859876</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4699565901124438</v>
+        <v>0.4696468818868251</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4966666350672728</v>
+        <v>0.4957562613787482</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5480611992361027</v>
+        <v>0.547054310576028</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5637282252601299</v>
+        <v>0.5654492901938156</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6603611977106814</v>
+        <v>0.6597868871637994</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4287084228895748</v>
+        <v>0.4294372481260194</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4699932748536701</v>
+        <v>0.4705599447040451</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4723590495769859</v>
+        <v>0.4730429853022671</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5718105813434559</v>
+        <v>0.5727739953918597</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1017092794038589</v>
+        <v>0.09868583892325958</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1133261958999521</v>
+        <v>0.114494272639672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1394366182475243</v>
+        <v>0.1382355675153079</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2286311812090515</v>
+        <v>0.2299317425842509</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1632185120331237</v>
+        <v>0.165694855579704</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1874044097123284</v>
+        <v>0.1879683116121423</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.185914707699191</v>
+        <v>0.1877354838967245</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2908164558526941</v>
+        <v>0.2918962633560946</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1352019151581544</v>
+        <v>0.1363076608008162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1534938751453627</v>
+        <v>0.1530618597744368</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1659178719505972</v>
+        <v>0.166157162756589</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2627318360011114</v>
+        <v>0.2640696323410398</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1302618423514575</v>
+        <v>0.1312318860831736</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1455455876747661</v>
+        <v>0.1454330508584091</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1735003575634641</v>
+        <v>0.1703950784270767</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2690498261735127</v>
+        <v>0.2679041508633967</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.202105152262721</v>
+        <v>0.2039398147681191</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2273201211228782</v>
+        <v>0.2296054912815025</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2237938960570768</v>
+        <v>0.2245682032841002</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3259138248384649</v>
+        <v>0.3258682244097166</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1611436353936183</v>
+        <v>0.1611928150136453</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1782833163350812</v>
+        <v>0.1797796159505249</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1930860239994428</v>
+        <v>0.1923189960962699</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.291283973980945</v>
+        <v>0.2907339148946156</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.09743379601983901</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1870929511472015</v>
+        <v>0.1870929511472014</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1689792511827207</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07635161270343589</v>
+        <v>0.07747646339272272</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07973895703759991</v>
+        <v>0.07750393555519845</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07235158840556562</v>
+        <v>0.07123274518348216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1604595141731492</v>
+        <v>0.1585282383834657</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1340520939538788</v>
+        <v>0.135737803109822</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08242807884001739</v>
+        <v>0.08224398704165294</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1274033596177921</v>
+        <v>0.1281511998222335</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2352349938384996</v>
+        <v>0.2351473556798179</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1142094127832558</v>
+        <v>0.1127884437164756</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08534433231711208</v>
+        <v>0.08491887641627012</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1075782672209503</v>
+        <v>0.1068412137011389</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2046729281254481</v>
+        <v>0.2047928085906256</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1321615552774149</v>
+        <v>0.1306333196977362</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1397458239631732</v>
+        <v>0.1420815808043082</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1235480846629721</v>
+        <v>0.1265343892365333</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2192939822251389</v>
+        <v>0.2170274299057058</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2051149000717447</v>
+        <v>0.2059408498214299</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1447906243524833</v>
+        <v>0.1465075522590292</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.193600655991633</v>
+        <v>0.1961155566866332</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2919264947931283</v>
+        <v>0.2897097163173145</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1571337702738219</v>
+        <v>0.1553728696149901</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1353741315476166</v>
+        <v>0.1354897156081447</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1520089790572575</v>
+        <v>0.1493106362552618</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2470033106891987</v>
+        <v>0.2466891334939635</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2389963948839081</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3195504473614523</v>
+        <v>0.3195504473614522</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1686066687995799</v>
+        <v>0.1677094434853398</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1758177088233869</v>
+        <v>0.1748513224917388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1727532240608379</v>
+        <v>0.1737220316135633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2497195945184576</v>
+        <v>0.2491017029170442</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2763915148759407</v>
+        <v>0.2774934538337981</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2969851056249759</v>
+        <v>0.297257726623825</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2742315687374067</v>
+        <v>0.2725518862293161</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.356996696927209</v>
+        <v>0.3569260924770774</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2268916521119225</v>
+        <v>0.2270837719820155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2403098799748462</v>
+        <v>0.2413266270577316</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2281988675526811</v>
+        <v>0.2294542682183204</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3093207318147475</v>
+        <v>0.3092615565624928</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1955425101857123</v>
+        <v>0.1948612947337807</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2030135455591122</v>
+        <v>0.2031698881606262</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.199844453358329</v>
+        <v>0.2003076984995148</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2790855630788808</v>
+        <v>0.2801336083461884</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3070229447498261</v>
+        <v>0.3076926647884504</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3273102270876426</v>
+        <v>0.3293879758530108</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3032427332683099</v>
+        <v>0.3043863545762346</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3842700907819834</v>
+        <v>0.3847821401994695</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2479160208090878</v>
+        <v>0.2483616620316756</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2626349604423317</v>
+        <v>0.2630364021888892</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2498396731573224</v>
+        <v>0.2502737642054571</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3295696122548525</v>
+        <v>0.3299883699782462</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>318092</v>
+        <v>316853</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>302873</v>
+        <v>307597</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>229119</v>
+        <v>230396</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>226039</v>
+        <v>225732</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>579074</v>
+        <v>579715</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>658794</v>
+        <v>659467</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>490483</v>
+        <v>489941</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>498269</v>
+        <v>498695</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>914165</v>
+        <v>913478</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>983237</v>
+        <v>983982</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>735741</v>
+        <v>735636</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>734404</v>
+        <v>732816</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>374805</v>
+        <v>372968</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>365793</v>
+        <v>366457</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>277139</v>
+        <v>280627</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>271884</v>
+        <v>271704</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>653173</v>
+        <v>651976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>732680</v>
+        <v>731334</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>554048</v>
+        <v>555739</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>541255</v>
+        <v>540784</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1006108</v>
+        <v>1007818</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1084465</v>
+        <v>1085772</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>818711</v>
+        <v>819897</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>799486</v>
+        <v>800833</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>172236</v>
+        <v>167116</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>221340</v>
+        <v>223622</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>287414</v>
+        <v>284938</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>509510</v>
+        <v>512408</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>259138</v>
+        <v>263069</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>328872</v>
+        <v>329861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>368005</v>
+        <v>371609</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>631341</v>
+        <v>633685</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>443609</v>
+        <v>447237</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>569155</v>
+        <v>567554</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>670421</v>
+        <v>671388</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1155875</v>
+        <v>1161761</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>220587</v>
+        <v>222230</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>284269</v>
+        <v>284049</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>357628</v>
+        <v>351227</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>599584</v>
+        <v>597031</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>320877</v>
+        <v>323790</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>398919</v>
+        <v>402929</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>442984</v>
+        <v>444517</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>707535</v>
+        <v>707436</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>528726</v>
+        <v>528887</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>661075</v>
+        <v>666623</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>780199</v>
+        <v>777100</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1281489</v>
+        <v>1279069</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>42101</v>
+        <v>42721</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38196</v>
+        <v>37126</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39159</v>
+        <v>38554</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>113928</v>
+        <v>112556</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>63864</v>
+        <v>64667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>37804</v>
+        <v>37720</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>69727</v>
+        <v>70136</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>172495</v>
+        <v>172431</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>117387</v>
+        <v>115926</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>80023</v>
+        <v>79624</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>117102</v>
+        <v>116299</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>295404</v>
+        <v>295577</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>72875</v>
+        <v>72032</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66941</v>
+        <v>68060</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66868</v>
+        <v>68485</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>155700</v>
+        <v>154091</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>97719</v>
+        <v>98113</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>66405</v>
+        <v>67193</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>105956</v>
+        <v>107332</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>214066</v>
+        <v>212441</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>161505</v>
+        <v>159695</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>126933</v>
+        <v>127042</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>165465</v>
+        <v>162528</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>356499</v>
+        <v>356045</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>552447</v>
+        <v>549507</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>598253</v>
+        <v>594965</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>579224</v>
+        <v>582472</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>878279</v>
+        <v>876106</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>933981</v>
+        <v>937705</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1054406</v>
+        <v>1055373</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>962429</v>
+        <v>956534</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1329402</v>
+        <v>1329139</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1510132</v>
+        <v>1511411</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1670888</v>
+        <v>1677957</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1566002</v>
+        <v>1574617</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2239764</v>
+        <v>2239335</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>640703</v>
+        <v>638471</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>690792</v>
+        <v>691324</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>670058</v>
+        <v>671611</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>981561</v>
+        <v>985247</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1037491</v>
+        <v>1039754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1162071</v>
+        <v>1169448</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1064245</v>
+        <v>1068258</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1430964</v>
+        <v>1432871</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1650065</v>
+        <v>1653031</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1826115</v>
+        <v>1828907</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1714511</v>
+        <v>1717490</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2386384</v>
+        <v>2389416</v>
       </c>
     </row>
     <row r="20">
